--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220513_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220513_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -1142,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3774,32 +3774,6 @@
         <v>256</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>170</v>
-      </c>
-      <c r="F102" t="s">
-        <v>220</v>
-      </c>
-      <c r="G102" t="s">
-        <v>239</v>
-      </c>
-      <c r="H102" t="s">
-        <v>239</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220513_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220513_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -730,7 +730,7 @@
     <t>SSK</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>THE L1VE</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1220,7 @@
         <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1249,7 +1246,7 @@
         <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1327,7 +1324,7 @@
         <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1353,7 +1350,7 @@
         <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1379,7 +1376,7 @@
         <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1405,7 +1402,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1457,7 +1454,7 @@
         <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1509,7 +1506,7 @@
         <v>230</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1535,7 +1532,7 @@
         <v>222</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1561,7 +1558,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1587,7 +1584,7 @@
         <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1613,7 +1610,7 @@
         <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1639,7 +1636,7 @@
         <v>222</v>
       </c>
       <c r="H19" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1665,7 +1662,7 @@
         <v>234</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1691,7 +1688,7 @@
         <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1717,7 +1714,7 @@
         <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1743,7 +1740,7 @@
         <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1769,7 +1766,7 @@
         <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1821,7 +1818,7 @@
         <v>236</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1847,7 +1844,7 @@
         <v>235</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1899,7 +1896,7 @@
         <v>240</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1951,7 +1948,7 @@
         <v>223</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1977,7 +1974,7 @@
         <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2003,7 +2000,7 @@
         <v>236</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2029,7 +2026,7 @@
         <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2081,7 +2078,7 @@
         <v>242</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2159,7 +2156,7 @@
         <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2185,7 +2182,7 @@
         <v>244</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2211,7 +2208,7 @@
         <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2237,7 +2234,7 @@
         <v>227</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2289,7 +2286,7 @@
         <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2315,7 +2312,7 @@
         <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2341,7 +2338,7 @@
         <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2367,7 +2364,7 @@
         <v>231</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2419,7 +2416,7 @@
         <v>222</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2471,7 +2468,7 @@
         <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2523,7 +2520,7 @@
         <v>235</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2549,7 +2546,7 @@
         <v>238</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2575,7 +2572,7 @@
         <v>236</v>
       </c>
       <c r="H55" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2601,7 +2598,7 @@
         <v>236</v>
       </c>
       <c r="H56" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2627,7 +2624,7 @@
         <v>247</v>
       </c>
       <c r="H57" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2653,7 +2650,7 @@
         <v>238</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2679,7 +2676,7 @@
         <v>223</v>
       </c>
       <c r="H59" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2731,7 +2728,7 @@
         <v>236</v>
       </c>
       <c r="H61" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2757,7 +2754,7 @@
         <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2783,7 +2780,7 @@
         <v>248</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2835,7 +2832,7 @@
         <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2861,7 +2858,7 @@
         <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2913,7 +2910,7 @@
         <v>236</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2939,7 +2936,7 @@
         <v>250</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2965,7 +2962,7 @@
         <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2991,7 +2988,7 @@
         <v>241</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3043,7 +3040,7 @@
         <v>251</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3095,7 +3092,7 @@
         <v>241</v>
       </c>
       <c r="H75" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3121,7 +3118,7 @@
         <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3147,7 +3144,7 @@
         <v>253</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3173,7 +3170,7 @@
         <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3199,7 +3196,7 @@
         <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3225,7 +3222,7 @@
         <v>231</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3251,7 +3248,7 @@
         <v>238</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3303,7 +3300,7 @@
         <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3329,7 +3326,7 @@
         <v>222</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3355,7 +3352,7 @@
         <v>245</v>
       </c>
       <c r="H85" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3381,7 +3378,7 @@
         <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3407,7 +3404,7 @@
         <v>238</v>
       </c>
       <c r="H87" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3459,7 +3456,7 @@
         <v>236</v>
       </c>
       <c r="H89" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3485,7 +3482,7 @@
         <v>222</v>
       </c>
       <c r="H90" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3537,7 +3534,7 @@
         <v>250</v>
       </c>
       <c r="H92" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3563,7 +3560,7 @@
         <v>226</v>
       </c>
       <c r="H93" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3615,7 +3612,7 @@
         <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3641,7 +3638,7 @@
         <v>255</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3719,7 +3716,7 @@
         <v>236</v>
       </c>
       <c r="H99" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3745,7 +3742,7 @@
         <v>252</v>
       </c>
       <c r="H100" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3771,7 +3768,7 @@
         <v>227</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
